--- a/activities.xlsx
+++ b/activities.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Activity Log" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -18,9 +19,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Don't modify this column/row</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Calories</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +76,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,8 +105,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -146,6 +188,187 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Calories</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Activity Log'!$J$2:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Activity Log'!$B:$B</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Don't modify this column/row</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Activity Log'!$J$3:$J$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2145708664"/>
+        <c:axId val="2145824968"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2145708664"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2145824968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2145824968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2145708664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
@@ -446,4 +669,2044 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K206"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="14" customHeight="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" ht="14" customHeight="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" ht="14" customHeight="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" ht="14" customHeight="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" ht="14" customHeight="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="e">
+        <f t="shared" ref="K7:K38" si="0">CONCATENATE(ROUND(J7 * 100/J8, 0), "%")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="14" customHeight="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="14" customHeight="1">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="14" customHeight="1">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="14" customHeight="1">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="14" customHeight="1">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="14" customHeight="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="14" customHeight="1">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="14" customHeight="1">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="14" customHeight="1">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="14" customHeight="1">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="14" customHeight="1">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="14" customHeight="1">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="14" customHeight="1">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="14" customHeight="1">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="14" customHeight="1">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="14" customHeight="1">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="14" customHeight="1">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="14" customHeight="1">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="14" customHeight="1">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="14" customHeight="1">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="14" customHeight="1">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="14" customHeight="1">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="14" customHeight="1">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="14" customHeight="1">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="14" customHeight="1">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="14" customHeight="1">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="14" customHeight="1">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" ht="14" customHeight="1">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="14" customHeight="1">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" ht="14" customHeight="1">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="14" customHeight="1">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="14" customHeight="1">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="e">
+        <f t="shared" ref="K39:K70" si="1">CONCATENATE(ROUND(J39 * 100/J40, 0), "%")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" ht="14" customHeight="1">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" ht="14" customHeight="1">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" ht="14" customHeight="1">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" ht="14" customHeight="1">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" ht="14" customHeight="1">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" ht="14" customHeight="1">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" ht="14" customHeight="1">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" ht="14" customHeight="1">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" ht="14" customHeight="1">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" ht="14" customHeight="1">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" ht="14" customHeight="1">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" ht="14" customHeight="1">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" ht="14" customHeight="1">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" ht="14" customHeight="1">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" ht="14" customHeight="1">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="14" customHeight="1">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" ht="14" customHeight="1">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" ht="14" customHeight="1">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" ht="14" customHeight="1">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" ht="14" customHeight="1">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" ht="14" customHeight="1">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" ht="14" customHeight="1">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" ht="14" customHeight="1">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" ht="14" customHeight="1">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" ht="14" customHeight="1">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" ht="14" customHeight="1">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" ht="14" customHeight="1">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="14" customHeight="1">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="14" customHeight="1">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" ht="14" customHeight="1">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" ht="14" customHeight="1">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="14" customHeight="1">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1" t="e">
+        <f t="shared" ref="K71:K134" si="2">CONCATENATE(ROUND(J71 * 100/J72, 0), "%")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="14" customHeight="1">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" ht="14" customHeight="1">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" ht="14" customHeight="1">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" ht="14" customHeight="1">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" ht="14" customHeight="1">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" ht="14" customHeight="1">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" ht="14" customHeight="1">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" ht="14" customHeight="1">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" ht="14" customHeight="1">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" ht="14" customHeight="1">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" ht="14" customHeight="1">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" ht="14" customHeight="1">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" ht="14" customHeight="1">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" ht="14" customHeight="1">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" ht="14" customHeight="1">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" ht="14" customHeight="1">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" ht="14" customHeight="1">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" ht="14" customHeight="1">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" ht="14" customHeight="1">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" ht="14" customHeight="1">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" ht="14" customHeight="1">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" ht="14" customHeight="1">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11" ht="14" customHeight="1">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11" ht="14" customHeight="1">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" ht="14" customHeight="1">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" ht="14" customHeight="1">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" ht="14" customHeight="1">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11">
+      <c r="K99" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11">
+      <c r="K100" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11">
+      <c r="K101" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11">
+      <c r="K102" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11">
+      <c r="K103" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11">
+      <c r="K104" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11">
+      <c r="K105" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11">
+      <c r="K106" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11">
+      <c r="K107" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11">
+      <c r="K108" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11">
+      <c r="K109" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11">
+      <c r="K110" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11">
+      <c r="K111" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11">
+      <c r="K112" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="11:11">
+      <c r="K116" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="11:11">
+      <c r="K117" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="11:11">
+      <c r="K118" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="11:11">
+      <c r="K119" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="11:11">
+      <c r="K122" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="11:11">
+      <c r="K123" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="11:11">
+      <c r="K124" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="11:11">
+      <c r="K125" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="11:11">
+      <c r="K126" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="11:11">
+      <c r="K127" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="11:11">
+      <c r="K128" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="11:11">
+      <c r="K129" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="11:11">
+      <c r="K134" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="11:11">
+      <c r="K135" s="1" t="e">
+        <f t="shared" ref="K135:K198" si="3">CONCATENATE(ROUND(J135 * 100/J136, 0), "%")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="11:11">
+      <c r="K137" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="11:11">
+      <c r="K138" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="11:11">
+      <c r="K140" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="11:11">
+      <c r="K141" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="11:11">
+      <c r="K142" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="11:11">
+      <c r="K143" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="11:11">
+      <c r="K144" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="11:11">
+      <c r="K145" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="11:11">
+      <c r="K146" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="11:11">
+      <c r="K147" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="11:11">
+      <c r="K148" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="11:11">
+      <c r="K149" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="11:11">
+      <c r="K150" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="11:11">
+      <c r="K151" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="11:11">
+      <c r="K152" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="11:11">
+      <c r="K153" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="11:11">
+      <c r="K154" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="11:11">
+      <c r="K155" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="11:11">
+      <c r="K156" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="11:11">
+      <c r="K157" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="11:11">
+      <c r="K158" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="11:11">
+      <c r="K159" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="11:11">
+      <c r="K160" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="11:11">
+      <c r="K161" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="11:11">
+      <c r="K162" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="11:11">
+      <c r="K163" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="11:11">
+      <c r="K164" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="11:11">
+      <c r="K165" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="11:11">
+      <c r="K166" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="11:11">
+      <c r="K167" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="11:11">
+      <c r="K168" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="11:11">
+      <c r="K169" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="11:11">
+      <c r="K170" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="11:11">
+      <c r="K171" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="11:11">
+      <c r="K172" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="11:11">
+      <c r="K173" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="11:11">
+      <c r="K174" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="11:11">
+      <c r="K175" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="11:11">
+      <c r="K176" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="11:11">
+      <c r="K177" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="11:11">
+      <c r="K178" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="11:11">
+      <c r="K179" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="11:11">
+      <c r="K180" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="11:11">
+      <c r="K181" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="11:11">
+      <c r="K182" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="11:11">
+      <c r="K183" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="11:11">
+      <c r="K184" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="11:11">
+      <c r="K185" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="11:11">
+      <c r="K186" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="11:11">
+      <c r="K187" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="11:11">
+      <c r="K188" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="11:11">
+      <c r="K189" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="11:11">
+      <c r="K190" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="11:11">
+      <c r="K191" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="11:11">
+      <c r="K192" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="11:11">
+      <c r="K193" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="11:11">
+      <c r="K194" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="195" spans="11:11">
+      <c r="K195" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="11:11">
+      <c r="K196" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="11:11">
+      <c r="K197" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="11:11">
+      <c r="K198" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="11:11">
+      <c r="K199" s="1" t="e">
+        <f t="shared" ref="K199:K206" si="4">CONCATENATE(ROUND(J199 * 100/J200, 0), "%")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="11:11">
+      <c r="K200" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="11:11">
+      <c r="K201" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="11:11">
+      <c r="K202" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="11:11">
+      <c r="K203" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="11:11">
+      <c r="K204" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="11:11">
+      <c r="K205" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="11:11">
+      <c r="K206" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>